--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1580.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1580.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.030930188394098</v>
+        <v>0.583803653717041</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.7355457544326782</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.064057350158691</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>4.302477836608887</v>
       </c>
       <c r="E1">
-        <v>1.04166811383955</v>
+        <v>3.983104228973389</v>
       </c>
     </row>
   </sheetData>
